--- a/query/tpch/q9/tpch.xlsx
+++ b/query/tpch/q9/tpch.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbn/Desktop/SQLRewriter/query/tpch/q9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbn/Desktop/research files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CC8A43-DA36-5642-A025-8BAEAA46BBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729D401B-E97C-4142-9296-7CCBDF81A600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="1260" windowWidth="33040" windowHeight="16940" xr2:uid="{603B9A9E-4DFE-214F-AF14-55792C66D0DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>nation</t>
   </si>
@@ -98,9 +98,33 @@
     <t>1000000;1000000</t>
   </si>
   <si>
+    <t>20000000;19983675</t>
+  </si>
+  <si>
     <t>25;5</t>
   </si>
   <si>
+    <t>20000000;5</t>
+  </si>
+  <si>
+    <t>20000000;25</t>
+  </si>
+  <si>
+    <t>20000000;150</t>
+  </si>
+  <si>
+    <t>20000000;50</t>
+  </si>
+  <si>
+    <t>20000000;40</t>
+  </si>
+  <si>
+    <t>20000000;119899</t>
+  </si>
+  <si>
+    <t>20000000;3946180</t>
+  </si>
+  <si>
     <t>1000000;25</t>
   </si>
   <si>
@@ -240,9 +264,6 @@
   </si>
   <si>
     <t>217222;217222</t>
-  </si>
-  <si>
-    <t>1087982;</t>
   </si>
 </sst>
 </file>
@@ -620,7 +641,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +687,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -691,31 +712,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -732,16 +753,16 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -749,19 +770,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -769,28 +790,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -798,34 +819,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -833,55 +854,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
         <v>56</v>
       </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>48</v>
-      </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -889,10 +910,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -900,37 +921,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -941,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -949,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -960,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -968,7 +989,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -976,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -984,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
